--- a/Backlog PI-PPhospital.xlsx
+++ b/Backlog PI-PPhospital.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sersor-Vital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\Sersor-Vital\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6808DA-6F25-4D2D-801A-4B3F5CC3012C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310"/>
+    <workbookView xWindow="165" yWindow="60" windowWidth="21420" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Requisitos</t>
   </si>
@@ -42,9 +43,6 @@
     <t>RA</t>
   </si>
   <si>
-    <t>O site tera login para usuário</t>
-  </si>
-  <si>
     <t xml:space="preserve">Essencial </t>
   </si>
   <si>
@@ -60,9 +58,6 @@
     <t>O banco de dados estará alocado em nuvem</t>
   </si>
   <si>
-    <t>O banco de dados tera acesso privado</t>
-  </si>
-  <si>
     <t>O usuario tera acesso aos registros do sensor</t>
   </si>
   <si>
@@ -82,12 +77,45 @@
   </si>
   <si>
     <t>Desejável</t>
+  </si>
+  <si>
+    <t>Controlar ar condicionado</t>
+  </si>
+  <si>
+    <t>O banco de dados terá acesso privado</t>
+  </si>
+  <si>
+    <t>O site terá login para usuário</t>
+  </si>
+  <si>
+    <t>Captação de dados a partir do sensor a cada 15 minutos</t>
+  </si>
+  <si>
+    <t>Alerta para o cliente se sair 3º da temperatura ideal</t>
+  </si>
+  <si>
+    <t>3 gráficos por ala: tempo real, semanal e mensal.</t>
+  </si>
+  <si>
+    <t>Tela de cadastro de usúario</t>
+  </si>
+  <si>
+    <t>Informações sobre a área de instalação</t>
+  </si>
+  <si>
+    <t>Chat com o cliente</t>
+  </si>
+  <si>
+    <t>Barra de pesquisa</t>
+  </si>
+  <si>
+    <t>Programação do arduino</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -112,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +156,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -195,13 +217,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -219,24 +240,23 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -523,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,175 +560,209 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="4" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="5"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-    </row>
-    <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+      <c r="B4" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-    </row>
-    <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="B9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="7"/>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="B13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="16"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="8"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="13"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="8"/>
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="8"/>
+      <c r="A15" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="8"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
+      <c r="A16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A17" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>27</v>
+      </c>
       <c r="B21" s="2"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -754,7 +808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/Backlog PI-PPhospital.xlsx
+++ b/Backlog PI-PPhospital.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\Sersor-Vital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6808DA-6F25-4D2D-801A-4B3F5CC3012C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE819924-B762-4907-B7DA-95902FFEF7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="165" yWindow="60" windowWidth="21420" windowHeight="15015" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Requisitos</t>
   </si>
@@ -140,7 +140,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,7 +161,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF99FF66"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -217,7 +241,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -237,25 +261,31 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -546,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,10 +590,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7"/>
@@ -573,10 +603,10 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="7"/>
@@ -588,7 +618,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -599,10 +629,10 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="7"/>
@@ -610,7 +640,7 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -621,10 +651,10 @@
       <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="7"/>
@@ -632,10 +662,10 @@
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="7"/>
@@ -643,10 +673,10 @@
       <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
@@ -654,10 +684,10 @@
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="7"/>
@@ -665,10 +695,10 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="7"/>
@@ -683,46 +713,46 @@
       <c r="C11" s="7"/>
     </row>
     <row r="12" spans="1:5" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>5</v>
       </c>
       <c r="C16" s="7"/>
@@ -731,7 +761,7 @@
       <c r="A17" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
     </row>
@@ -739,7 +769,7 @@
       <c r="A18" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="11" t="s">
         <v>5</v>
       </c>
     </row>
@@ -747,7 +777,7 @@
       <c r="A19" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -755,15 +785,17 @@
       <c r="A20" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="11" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>

--- a/Backlog PI-PPhospital.xlsx
+++ b/Backlog PI-PPhospital.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Desktop\Sersor-Vital\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Sersor-Vital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE819924-B762-4907-B7DA-95902FFEF7FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -115,7 +114,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -573,11 +572,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -687,8 +686,8 @@
       <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>16</v>
+      <c r="B9" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="6"/>
@@ -698,8 +697,8 @@
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>16</v>
+      <c r="B10" s="11" t="s">
+        <v>5</v>
       </c>
       <c r="C10" s="7"/>
     </row>
@@ -840,7 +839,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
